--- a/examples/protocols/single-particle-calibration/artifacts/ecl-data.xlsx
+++ b/examples/protocols/single-particle-calibration/artifacts/ecl-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danbryce/Documents/sift/xplan/external/labop/examples/protocols/single-particle-calibration/artifacts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0050F8-A796-774D-9158-976123ECFFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDA64F1-2750-3847-98F1-F458323647ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105980" yWindow="7360" windowWidth="28040" windowHeight="17440" xr2:uid="{58DD9732-EE8C-A944-85C1-A2E79CA87B45}"/>
+    <workbookView xWindow="10480" yWindow="5200" windowWidth="30240" windowHeight="18880" xr2:uid="{58DD9732-EE8C-A944-85C1-A2E79CA87B45}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>A1</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>D2</t>
+  </si>
+  <si>
+    <t>B1</t>
   </si>
 </sst>
 </file>
@@ -409,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D292D988-35FD-984D-98BF-E17B92EE0B08}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B11"/>
+      <selection activeCell="B12" sqref="A1:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -505,6 +508,14 @@
         <v>0.02</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B11">
     <sortCondition ref="A1:A11"/>
